--- a/output/fieldtrip-cost-template.xlsx
+++ b/output/fieldtrip-cost-template.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defaults to EUR 24 per full day.</t>
+          <t>Defaults to EUR 24 per full day</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Set to average base rate in EUR for all Stadtmobil rentals.</t>
+          <t>Set to average base rate in EUR for all Stadtmobil rentals</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Planning value only; adjust to Stadtmobil rate for relevant cars.</t>
+          <t>Planning value only; adjust to Stadtmobil rate for relevant cars</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enter a lump sum in EUR for all Stadtmobil rentals (e.g., for post-cost assessment).</t>
+          <t>Enter a lump sum in EUR for all Stadtmobil rentals (e.g., for post-cost assessment)</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Planning cap or expected average incl. taxes; edit per trip.</t>
+          <t>Planning cap or expected average incl. taxes; edit per trip</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Accounts for future wage raises.</t>
+          <t>Accounts for future wage raises</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Role (WiMi/Hiwi/Unpaid graduating student)</t>
+          <t>Role (WiMi/VA/Hiwi/Unpaid graduating student)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -9732,7 +9732,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C300" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"WiMi,Hiwi (student assistant),Student (unpaid)"</formula1>
+      <formula1>"WiMi,Lab (VA),Hiwi (student assistant),Student (unpaid)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WiMi &amp; Hiwi only; unpaid students excluded.</t>
+          <t>WiMi, VA &amp; Hiwi only; unpaid students excluded.</t>
         </is>
       </c>
     </row>
@@ -22055,7 +22055,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Set rates in 'Inputs &amp; Rates'. Roles: WiMi &amp; Hiwis may receive per-diem; 'Student (unpaid)' receives overnights only.</t>
+          <t>Set rates in 'Inputs &amp; Rates'. Roles: WiMi, VA staff &amp; Hiwis may receive per-diem; 'Student (unpaid)' receives overnights only.</t>
         </is>
       </c>
     </row>
